--- a/wwwroot/Reports/report_records_template.xlsx
+++ b/wwwroot/Reports/report_records_template.xlsx
@@ -131,19 +131,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -176,7 +176,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="14.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.4"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="8.55"/>
   </cols>
   <sheetData>

--- a/wwwroot/Reports/report_records_template.xlsx
+++ b/wwwroot/Reports/report_records_template.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t xml:space="preserve">Пластинки</t>
+    <t xml:space="preserve">Пластинки в наличие</t>
   </si>
   <si>
     <t xml:space="preserve">#</t>
@@ -167,7 +167,7 @@
   <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
